--- a/biology/Biologie cellulaire et moléculaire/Brin_sens/Brin_sens.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Brin_sens/Brin_sens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le brin sens est un brin d'ARN se lisant de 5' vers 3' (numérotation de ses désoxyriboses).
 Le carbone 5' étant le carbone se liant avec un groupe phosphate et le carbone 3' avec un hydroxyle (OH).
